--- a/Datasets/IMCV_pca.xlsx
+++ b/Datasets/IMCV_pca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6C60B-2045-3B46-9695-D6C4C61E8F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915177DD-7A1F-874B-875B-0E8F1A3B816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="3" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
+    <workbookView xWindow="3620" yWindow="540" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>CCAA</t>
   </si>
@@ -372,12 +372,112 @@
   <si>
     <t>IMCV_pca</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Análisis PCA. Reducir el número de variables de los 9 indicadores globales de calidad de vida sin perder mucha información.:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Análisis exploratorio con matriz de correlaciones..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Escalar/centrar los datos antes de aplicar pca y decidir si hacerlo con matriz de correlaciones o covarianzas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Seleccionar un determinado número de componentes y ver como influyen las variables en estas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.Interpretar componentes y resultados.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +537,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1114,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1205,9 +1310,93 @@
       <c r="F11" s="39"/>
       <c r="G11" s="40"/>
     </row>
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G11"/>
+    <mergeCell ref="B13:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2311,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
